--- a/testpy.xlsx
+++ b/testpy.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,67 +416,894 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>권세한</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>권하은</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>김균호</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>김동욱</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>김예원</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>박연수</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>박재영</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>이신후</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>임혁규</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>정주성</t>
         </is>
       </c>
+      <c r="L1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>06월01일</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>06월02일</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>06월03일</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>06월04일</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>06월05일</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>06월06일</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>06월07일</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>06월08일</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>06월09일</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>06월10일</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>06월12일</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>06월13일</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>06월14일</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>06월15일</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>06월16일</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>06월17일</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>06월19일</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>06월20일</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>06월21일</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>06월22일</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>06월23일</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>06월24일</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>06월25일</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>06월26일</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A31"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>